--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.49304366666667</v>
+        <v>10.83367066666667</v>
       </c>
       <c r="N2">
-        <v>34.479131</v>
+        <v>32.501012</v>
       </c>
       <c r="O2">
-        <v>0.2201107113282896</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="P2">
-        <v>0.2201107113282897</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="Q2">
-        <v>1.837741513314556</v>
+        <v>1.732307550823556</v>
       </c>
       <c r="R2">
-        <v>16.539673619831</v>
+        <v>15.590767957412</v>
       </c>
       <c r="S2">
-        <v>0.0058280296591177</v>
+        <v>0.005151674401392354</v>
       </c>
       <c r="T2">
-        <v>0.005828029659117703</v>
+        <v>0.005151674401392356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,22 +626,22 @@
         <v>83.631664</v>
       </c>
       <c r="O3">
-        <v>0.5338946927812221</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="P3">
-        <v>0.5338946927812223</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="Q3">
         <v>4.457576983607112</v>
       </c>
       <c r="R3">
-        <v>40.11819285246401</v>
+        <v>40.118192852464</v>
       </c>
       <c r="S3">
-        <v>0.01413631388312443</v>
+        <v>0.01325629806772314</v>
       </c>
       <c r="T3">
-        <v>0.01413631388312444</v>
+        <v>0.01325629806772314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133321</v>
+        <v>0.4511806666666667</v>
       </c>
       <c r="N4">
-        <v>0.399963</v>
+        <v>1.353542</v>
       </c>
       <c r="O4">
-        <v>0.002553316684083386</v>
+        <v>0.008102941119511068</v>
       </c>
       <c r="P4">
-        <v>0.002553316684083387</v>
+        <v>0.00810294111951107</v>
       </c>
       <c r="Q4">
-        <v>0.02131807234033333</v>
+        <v>0.07214393899355556</v>
       </c>
       <c r="R4">
-        <v>0.191862651063</v>
+        <v>0.649295450942</v>
       </c>
       <c r="S4">
-        <v>6.760600278904049E-05</v>
+        <v>0.0002145474015581241</v>
       </c>
       <c r="T4">
-        <v>6.760600278904053E-05</v>
+        <v>0.0002145474015581242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.608304</v>
+        <v>16.146255</v>
       </c>
       <c r="N5">
-        <v>37.824912</v>
+        <v>48.438765</v>
       </c>
       <c r="O5">
-        <v>0.2414697831639074</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="P5">
-        <v>0.2414697831639075</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="Q5">
-        <v>2.016072012368</v>
+        <v>2.581791556585</v>
       </c>
       <c r="R5">
-        <v>18.14464811131201</v>
+        <v>23.236124009265</v>
       </c>
       <c r="S5">
-        <v>0.006393569170566307</v>
+        <v>0.007677937711156808</v>
       </c>
       <c r="T5">
-        <v>0.006393569170566309</v>
+        <v>0.007677937711156809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1029413333333333</v>
+        <v>0.3727713333333333</v>
       </c>
       <c r="N6">
-        <v>0.308824</v>
+        <v>1.118314</v>
       </c>
       <c r="O6">
-        <v>0.00197149604249735</v>
+        <v>0.006694755312450519</v>
       </c>
       <c r="P6">
-        <v>0.001971496042497351</v>
+        <v>0.006694755312450519</v>
       </c>
       <c r="Q6">
-        <v>0.01646035351377778</v>
+        <v>0.05960626045711111</v>
       </c>
       <c r="R6">
-        <v>0.148143181624</v>
+        <v>0.5364563441139999</v>
       </c>
       <c r="S6">
-        <v>5.220071907982149E-05</v>
+        <v>0.0001772618528468802</v>
       </c>
       <c r="T6">
-        <v>5.220071907982151E-05</v>
+        <v>0.0001772618528468803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.49304366666667</v>
+        <v>10.83367066666667</v>
       </c>
       <c r="N7">
-        <v>34.479131</v>
+        <v>32.501012</v>
       </c>
       <c r="O7">
-        <v>0.2201107113282896</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="P7">
-        <v>0.2201107113282897</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="Q7">
-        <v>67.56935065897068</v>
+        <v>63.69279656727468</v>
       </c>
       <c r="R7">
-        <v>608.124155930736</v>
+        <v>573.2351691054721</v>
       </c>
       <c r="S7">
-        <v>0.2142826816691719</v>
+        <v>0.1894147199628185</v>
       </c>
       <c r="T7">
-        <v>0.214282681669172</v>
+        <v>0.1894147199628186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>83.631664</v>
       </c>
       <c r="O8">
-        <v>0.5338946927812221</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="P8">
-        <v>0.5338946927812223</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="Q8">
         <v>163.8944215563093</v>
@@ -948,10 +948,10 @@
         <v>1475.049794006784</v>
       </c>
       <c r="S8">
-        <v>0.5197583788980977</v>
+        <v>0.4874023066292375</v>
       </c>
       <c r="T8">
-        <v>0.5197583788980978</v>
+        <v>0.4874023066292376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.133321</v>
+        <v>0.4511806666666667</v>
       </c>
       <c r="N9">
-        <v>0.399963</v>
+        <v>1.353542</v>
       </c>
       <c r="O9">
-        <v>0.002553316684083386</v>
+        <v>0.008102941119511068</v>
       </c>
       <c r="P9">
-        <v>0.002553316684083387</v>
+        <v>0.00810294111951107</v>
       </c>
       <c r="Q9">
-        <v>0.7838144237920001</v>
+        <v>2.652559718794667</v>
       </c>
       <c r="R9">
-        <v>7.054329814128</v>
+        <v>23.873037469152</v>
       </c>
       <c r="S9">
-        <v>0.002485710681294346</v>
+        <v>0.007888393717952944</v>
       </c>
       <c r="T9">
-        <v>0.002485710681294347</v>
+        <v>0.007888393717952946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.608304</v>
+        <v>16.146255</v>
       </c>
       <c r="N10">
-        <v>37.824912</v>
+        <v>48.438765</v>
       </c>
       <c r="O10">
-        <v>0.2414697831639074</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="P10">
-        <v>0.2414697831639075</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="Q10">
-        <v>74.12613567820802</v>
+        <v>94.92628737576001</v>
       </c>
       <c r="R10">
-        <v>667.1352211038721</v>
+        <v>854.3365863818401</v>
       </c>
       <c r="S10">
-        <v>0.2350762139933411</v>
+        <v>0.28229936679571</v>
       </c>
       <c r="T10">
-        <v>0.2350762139933412</v>
+        <v>0.2822993667957101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,34 +1110,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1029413333333333</v>
+        <v>0.3727713333333333</v>
       </c>
       <c r="N11">
-        <v>0.308824</v>
+        <v>1.118314</v>
       </c>
       <c r="O11">
-        <v>0.00197149604249735</v>
+        <v>0.006694755312450519</v>
       </c>
       <c r="P11">
-        <v>0.001971496042497351</v>
+        <v>0.006694755312450519</v>
       </c>
       <c r="Q11">
-        <v>0.6052077457493333</v>
+        <v>2.191579329909333</v>
       </c>
       <c r="R11">
-        <v>5.446869711744</v>
+        <v>19.724213969184</v>
       </c>
       <c r="S11">
-        <v>0.001919295323417529</v>
+        <v>0.006517493459603638</v>
       </c>
       <c r="T11">
-        <v>0.001919295323417529</v>
+        <v>0.006517493459603639</v>
       </c>
     </row>
   </sheetData>
